--- a/hardware/epdiy-v7/BOM_lcsc.xlsx
+++ b/hardware/epdiy-v7/BOM_lcsc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7" count="7">
   <si>
     <t>Capacitor_SMD:C_0805_2012Metric</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>C25819</t>
-  </si>
-  <si>
-    <t>TestPoint:TestPoint_Pad_D2.5mm</t>
-  </si>
-  <si>
-    <t>C92280</t>
   </si>
 </sst>
 </file>
@@ -94,11 +88,7 @@
       <protection locked="1" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
+  <cellXfs count="1">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
@@ -112,19 +102,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A18" workbookViewId="0" tabSelected="1">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" style="1" width="20.722564102564103" customWidth="1"/>
-    <col min="2" max="2" style="1" width="14.42770432692308" customWidth="1"/>
-    <col min="3" max="3" style="1" width="9.142307692307693"/>
-    <col min="4" max="4" style="1" width="12.856370192307693" customWidth="1"/>
-    <col min="5" max="256" style="1" width="9.142307692307693"/>
+    <col min="1" max="1" style="0" width="20.722564102564103" customWidth="1"/>
+    <col min="2" max="2" style="0" width="14.42770432692308" customWidth="1"/>
+    <col min="3" max="3" style="0" width="33.71225961538462" customWidth="1"/>
+    <col min="4" max="4" style="0" width="12.856370192307693" customWidth="1"/>
+    <col min="5" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -489,7 +479,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C231420</t>
+          <t>C597986</t>
         </is>
       </c>
     </row>
@@ -511,7 +501,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t> C222947</t>
+          <t>C222947</t>
         </is>
       </c>
     </row>
@@ -854,335 +844,262 @@
     <row r="37" spans="1:4">
       <c r="A37" t="inlineStr">
         <is>
-          <t>+22V</t>
+          <t>RT9080-33GJ5</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TP1</t>
-        </is>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
+          <t>U1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Package_TO_SOT_SMD:TSOT-23-5</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>C841192</t>
+        </is>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-15V</t>
+          <t>13.3 connector</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TP2</t>
-        </is>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
+          <t>J8</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>epaper-breakout:X05A20H34G</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>C92280</t>
+        </is>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-20V</t>
+          <t>TP4056</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TP3</t>
-        </is>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
+          <t>U11</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>epaper-breakout:TP4056_SOP-8-PP</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t> C16581</t>
+        </is>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="inlineStr">
         <is>
-          <t>+15V</t>
+          <t>PCA9535PW</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TP4</t>
-        </is>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
+          <t>U2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Package_SO:TSSOP-24_4.4x7.8mm_P0.65mm</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>C255606</t>
+        </is>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="inlineStr">
         <is>
-          <t>VCOM</t>
+          <t>TPS651851RSLR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TP5</t>
-        </is>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>epaper-breakout:TPS651851RSLR</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>C139292</t>
+        </is>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RT9080-33GJ5</t>
+          <t>USBLC6-2P6</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>U1</t>
+          <t>U4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Package_TO_SOT_SMD:TSOT-23-5</t>
+          <t>Package_TO_SOT_SMD:SOT-666</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C841192</t>
+          <t>C2827693</t>
         </is>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="inlineStr">
         <is>
-          <t>13.3 connector</t>
+          <t>XC6206PxxxMR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>U5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>epaper-breakout:X05A20H34G</t>
-        </is>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
+          <t>Package_TO_SOT_SMD:SOT-23-3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>C5446</t>
+        </is>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TP4056</t>
+          <t>ED078KH6</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>U11</t>
+          <t>U6</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>epaper-breakout:TP4056_SOP-8-PP</t>
+          <t>Connector_FFC-FPC:Hirose_FH12-40S-0.5SH_1x40-1MP_P0.50mm_Horizontal</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t> C16581</t>
+          <t>C202114</t>
         </is>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PCA9535PW</t>
+          <t>PCF8563T</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>U2</t>
+          <t>U7</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Package_SO:TSSOP-24_4.4x7.8mm_P0.65mm</t>
+          <t>Package_SO:SOIC-8_3.9x4.9mm_P1.27mm</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>C255606</t>
+          <t>C7440</t>
         </is>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TPS651851RSLR</t>
+          <t>ESP32-S3-WROOM-1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>U3</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>epaper-breakout:TPS651851RSLR</t>
+          <t>Espressif:ESP32-S3-WROOM-1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>C139292</t>
+          <t>C2913202</t>
         </is>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="inlineStr">
         <is>
-          <t>USBLC6-2P6</t>
+          <t>CH340C</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>U4</t>
+          <t>U9</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Package_TO_SOT_SMD:SOT-666</t>
+          <t>Package_SO:SOIC-16_3.9x9.9mm_P1.27mm</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>C2827693</t>
+          <t>C84681</t>
         </is>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="inlineStr">
         <is>
-          <t>XC6206PxxxMR</t>
+          <t>32.768K</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>U5</t>
+          <t>Y1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Package_TO_SOT_SMD:SOT-23-3</t>
+          <t>Crystal:Crystal_SMD_3215-2Pin_3.2x1.5mm</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
-        <is>
-          <t>C5446</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>ED078KH6</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>U6</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Connector_FFC-FPC:Hirose_FH12-40S-0.5SH_1x40-1MP_P0.50mm_Horizontal</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>C202114</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>PCF8563T</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>U7</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Package_SO:SOIC-8_3.9x4.9mm_P1.27mm</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>C7440</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>ESP32-S3-WROOM-1</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>U8</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Espressif:ESP32-S3-WROOM-1</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>C2913202</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>CH340C</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>U9</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Package_SO:SOIC-16_3.9x9.9mm_P1.27mm</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>C84681</t>
-        </is>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>32.768K</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Y1</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Crystal:Crystal_SMD_3215-2Pin_3.2x1.5mm</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
         <is>
           <t>C32346</t>
         </is>
